--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama1-Rpsa.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N2">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P2">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q2">
-        <v>2.104290918396333</v>
+        <v>0.4061640302416667</v>
       </c>
       <c r="R2">
-        <v>18.938618265567</v>
+        <v>3.655476272175</v>
       </c>
       <c r="S2">
-        <v>0.3123343646638312</v>
+        <v>0.0931662232504764</v>
       </c>
       <c r="T2">
-        <v>0.3123343646638312</v>
+        <v>0.09316622325047641</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>308.700149</v>
       </c>
       <c r="O3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P3">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q3">
         <v>2.031967280767667</v>
@@ -632,10 +632,10 @@
         <v>18.287705526909</v>
       </c>
       <c r="S3">
-        <v>0.3015995574128729</v>
+        <v>0.4660942457288118</v>
       </c>
       <c r="T3">
-        <v>0.3015995574128729</v>
+        <v>0.4660942457288118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>102.603332</v>
       </c>
       <c r="O4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P4">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q4">
-        <v>0.6753693323346666</v>
+        <v>0.6753693323346667</v>
       </c>
       <c r="R4">
-        <v>6.078323991011999</v>
+        <v>6.078323991012</v>
       </c>
       <c r="S4">
-        <v>0.1002432931131694</v>
+        <v>0.1549167462105852</v>
       </c>
       <c r="T4">
-        <v>0.1002432931131694</v>
+        <v>0.1549167462105853</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>106.5625623333333</v>
+        <v>20.56839166666667</v>
       </c>
       <c r="N5">
-        <v>319.687687</v>
+        <v>61.705175</v>
       </c>
       <c r="O5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="P5">
-        <v>0.4373345410925676</v>
+        <v>0.1304525281245593</v>
       </c>
       <c r="Q5">
-        <v>0.8421639301203333</v>
+        <v>0.1625519993416667</v>
       </c>
       <c r="R5">
-        <v>7.579475371083</v>
+        <v>1.462967994075</v>
       </c>
       <c r="S5">
-        <v>0.1250001764287364</v>
+        <v>0.0372863048740829</v>
       </c>
       <c r="T5">
-        <v>0.1250001764287364</v>
+        <v>0.03728630487408291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>308.700149</v>
       </c>
       <c r="O6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="P6">
-        <v>0.4223035277493257</v>
+        <v>0.6526310778549473</v>
       </c>
       <c r="Q6">
         <v>0.8132190925156667</v>
@@ -818,10 +818,10 @@
         <v>7.318971832641001</v>
       </c>
       <c r="S6">
-        <v>0.1207039703364529</v>
+        <v>0.1865368321261356</v>
       </c>
       <c r="T6">
-        <v>0.1207039703364529</v>
+        <v>0.1865368321261356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>102.603332</v>
       </c>
       <c r="O7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204933</v>
       </c>
       <c r="P7">
-        <v>0.1403619311581067</v>
+        <v>0.2169163940204934</v>
       </c>
       <c r="Q7">
         <v>0.2702913775986667</v>
@@ -880,10 +880,10 @@
         <v>2.432622398388</v>
       </c>
       <c r="S7">
-        <v>0.04011863804493734</v>
+        <v>0.0619996478099081</v>
       </c>
       <c r="T7">
-        <v>0.04011863804493734</v>
+        <v>0.06199964780990812</v>
       </c>
     </row>
   </sheetData>
